--- a/biology/Zoologie/Écaille_marbrée/Écaille_marbrée.xlsx
+++ b/biology/Zoologie/Écaille_marbrée/Écaille_marbrée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89caille_marbr%C3%A9e</t>
+          <t>Écaille_marbrée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callimorpha dominula
 L’Écaille marbrée, Écaille lustrée ou Écaille rouge (Callimorpha dominula) est une espèce de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae. Elle est la seule représentante du genre monotypique Callimorpha.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89caille_marbr%C3%A9e</t>
+          <t>Écaille_marbrée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En français, l'espèce est appelée Écaille marbrée[1],[2], Écaille lustrée[1],[2] ou Écaille rouge.
-Le nom d'Écaille rouge peut prêter à confusion d'autant plus que le rouge est parfois remplacé par du jaune[3]. C'est pourquoi dans l'édition 2012 de l'ouvrage cité, on trouve « Écaille marbrée rouge ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En français, l'espèce est appelée Écaille marbrée Écaille lustrée, ou Écaille rouge.
+Le nom d'Écaille rouge peut prêter à confusion d'autant plus que le rouge est parfois remplacé par du jaune. C'est pourquoi dans l'édition 2012 de l'ouvrage cité, on trouve « Écaille marbrée rouge ».
 En anglais, l'espèce est appelée scarlet tiger.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89caille_marbr%C3%A9e</t>
+          <t>Écaille_marbrée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ailes postérieures sont rouges et tachées de noir (taches plus grandes que celles de l'espèce proche Euplagia quadripunctaria).
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89caille_marbr%C3%A9e</t>
+          <t>Écaille_marbrée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce eurasiatique, elle est répandue dans presque toute l'Europe (sauf l'extrême nord), jusqu'à l'Oural et l'Iran en Asie. On la trouve presque partout en France métropolitaine, jusqu'à 1 500 m d'altitude environ, mais elle est absente de Corse.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89caille_marbr%C3%A9e</t>
+          <t>Écaille_marbrée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,13 +627,88 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-La chenille est polyphage, de mœurs diurnes ; elle se nourrit de diverses plantes basses (orties, patiences, consoudes, ronces...) ou d'arbustes (prunellier...).
-Phénologie
-L'espèce n'a qu'une seule génération par an. On peut rencontrer l'adulte de fin mai à mi-août.
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est polyphage, de mœurs diurnes ; elle se nourrit de diverses plantes basses (orties, patiences, consoudes, ronces...) ou d'arbustes (prunellier...).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écaille_marbrée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89caille_marbr%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phénologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'a qu'une seule génération par an. On peut rencontrer l'adulte de fin mai à mi-août.
 L'hibernation a lieu au stade de jeune chenille, enroulée sur elle-même dans les feuilles au sol.
-Biotopes
-Ce papillon fréquente les lieux boisés, ombragés, plutôt humides, ainsi que les parcs et jardins de jour comme de nuit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écaille_marbrée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89caille_marbr%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotopes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon fréquente les lieux boisés, ombragés, plutôt humides, ainsi que les parcs et jardins de jour comme de nuit.
 </t>
         </is>
       </c>
